--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cadm1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H2">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J2">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65233698874534</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="N2">
-        <v>2.65233698874534</v>
+        <v>12.402323</v>
       </c>
       <c r="O2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="P2">
-        <v>0.1596459536277321</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="Q2">
-        <v>5.920400656493583</v>
+        <v>10.18926075209533</v>
       </c>
       <c r="R2">
-        <v>5.920400656493583</v>
+        <v>91.70334676885798</v>
       </c>
       <c r="S2">
-        <v>0.03383130822267086</v>
+        <v>0.04218501981606463</v>
       </c>
       <c r="T2">
-        <v>0.03383130822267086</v>
+        <v>0.04218501981606463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H3">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I3">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J3">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>11.9665365005927</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="N3">
-        <v>11.9665365005927</v>
+        <v>0.013535</v>
       </c>
       <c r="O3">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="P3">
-        <v>0.7202739091467727</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="Q3">
-        <v>26.71104420542607</v>
+        <v>0.01111982362333333</v>
       </c>
       <c r="R3">
-        <v>26.71104420542607</v>
+        <v>0.10007841261</v>
       </c>
       <c r="S3">
-        <v>0.1526365565262881</v>
+        <v>4.603768529576554E-05</v>
       </c>
       <c r="T3">
-        <v>0.1526365565262881</v>
+        <v>4.603768529576554E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.23214496559661</v>
+        <v>2.464682</v>
       </c>
       <c r="H4">
-        <v>2.23214496559661</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I4">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J4">
-        <v>0.2119145988601744</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99499569102434</v>
+        <v>13.42211</v>
       </c>
       <c r="N4">
-        <v>1.99499569102434</v>
+        <v>40.26633</v>
       </c>
       <c r="O4">
-        <v>0.1200801372254952</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="P4">
-        <v>0.1200801372254952</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="Q4">
-        <v>4.453119588106911</v>
+        <v>33.08123291902</v>
       </c>
       <c r="R4">
-        <v>4.453119588106911</v>
+        <v>297.73109627118</v>
       </c>
       <c r="S4">
-        <v>0.02544673411121552</v>
+        <v>0.13696111034765</v>
       </c>
       <c r="T4">
-        <v>0.02544673411121552</v>
+        <v>0.13696111034765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32373528319991</v>
+        <v>2.464682</v>
       </c>
       <c r="H5">
-        <v>7.32373528319991</v>
+        <v>7.394045999999999</v>
       </c>
       <c r="I5">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="J5">
-        <v>0.6952982214945851</v>
+        <v>0.2095015056870776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.65233698874534</v>
+        <v>2.970297666666667</v>
       </c>
       <c r="N5">
-        <v>2.65233698874534</v>
+        <v>8.910893</v>
       </c>
       <c r="O5">
-        <v>0.1596459536277321</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="P5">
-        <v>0.1596459536277321</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="Q5">
-        <v>19.42501398741045</v>
+        <v>7.320839193675333</v>
       </c>
       <c r="R5">
-        <v>19.42501398741045</v>
+        <v>65.88755274307799</v>
       </c>
       <c r="S5">
-        <v>0.1110015476261691</v>
+        <v>0.03030933783806724</v>
       </c>
       <c r="T5">
-        <v>0.1110015476261691</v>
+        <v>0.03030933783806724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.32373528319991</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H6">
-        <v>7.32373528319991</v>
+        <v>23.950568</v>
       </c>
       <c r="I6">
-        <v>0.6952982214945851</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J6">
-        <v>0.6952982214945851</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.9665365005927</v>
+        <v>4.134107666666666</v>
       </c>
       <c r="N6">
-        <v>11.9665365005927</v>
+        <v>12.402323</v>
       </c>
       <c r="O6">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="P6">
-        <v>0.7202739091467727</v>
+        <v>0.2013590292714859</v>
       </c>
       <c r="Q6">
-        <v>87.63974558709033</v>
+        <v>33.00474226327377</v>
       </c>
       <c r="R6">
-        <v>87.63974558709033</v>
+        <v>297.0426803694639</v>
       </c>
       <c r="S6">
-        <v>0.5008051680187035</v>
+        <v>0.1366444279202487</v>
       </c>
       <c r="T6">
-        <v>0.5008051680187035</v>
+        <v>0.1366444279202487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.32373528319991</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H7">
-        <v>7.32373528319991</v>
+        <v>23.950568</v>
       </c>
       <c r="I7">
-        <v>0.6952982214945851</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J7">
-        <v>0.6952982214945851</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.99499569102434</v>
+        <v>0.004511666666666666</v>
       </c>
       <c r="N7">
-        <v>1.99499569102434</v>
+        <v>0.013535</v>
       </c>
       <c r="O7">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="P7">
-        <v>0.1200801372254952</v>
+        <v>0.0002197487084628873</v>
       </c>
       <c r="Q7">
-        <v>14.61082033218674</v>
+        <v>0.03601899309777777</v>
       </c>
       <c r="R7">
-        <v>14.61082033218674</v>
+        <v>0.32417093788</v>
       </c>
       <c r="S7">
-        <v>0.08349150584971254</v>
+        <v>0.0001491238642874054</v>
       </c>
       <c r="T7">
-        <v>0.08349150584971254</v>
+        <v>0.0001491238642874054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.977348597175649</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H8">
-        <v>0.977348597175649</v>
+        <v>23.950568</v>
       </c>
       <c r="I8">
-        <v>0.09278717964524053</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J8">
-        <v>0.09278717964524053</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.65233698874534</v>
+        <v>13.42211</v>
       </c>
       <c r="N8">
-        <v>2.65233698874534</v>
+        <v>40.26633</v>
       </c>
       <c r="O8">
-        <v>0.1596459536277321</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="P8">
-        <v>0.1596459536277321</v>
+        <v>0.6537476181780872</v>
       </c>
       <c r="Q8">
-        <v>2.592257835187343</v>
+        <v>107.1557194194933</v>
       </c>
       <c r="R8">
-        <v>2.592257835187343</v>
+        <v>964.4014747754397</v>
       </c>
       <c r="S8">
-        <v>0.01481309777889212</v>
+        <v>0.4436402460489013</v>
       </c>
       <c r="T8">
-        <v>0.01481309777889212</v>
+        <v>0.4436402460489014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.977348597175649</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H9">
-        <v>0.977348597175649</v>
+        <v>23.950568</v>
       </c>
       <c r="I9">
-        <v>0.09278717964524053</v>
+        <v>0.6786108793562738</v>
       </c>
       <c r="J9">
-        <v>0.09278717964524053</v>
+        <v>0.678610879356274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.9665365005927</v>
+        <v>2.970297666666667</v>
       </c>
       <c r="N9">
-        <v>11.9665365005927</v>
+        <v>8.910893</v>
       </c>
       <c r="O9">
-        <v>0.7202739091467727</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="P9">
-        <v>0.7202739091467727</v>
+        <v>0.144673603841964</v>
       </c>
       <c r="Q9">
-        <v>11.69547766190547</v>
+        <v>23.71343874858044</v>
       </c>
       <c r="R9">
-        <v>11.69547766190547</v>
+        <v>213.420948737224</v>
       </c>
       <c r="S9">
-        <v>0.06683218460178125</v>
+        <v>0.0981770815228364</v>
       </c>
       <c r="T9">
-        <v>0.06683218460178125</v>
+        <v>0.09817708152283641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.060381</v>
+      </c>
+      <c r="H10">
+        <v>0.181143</v>
+      </c>
+      <c r="I10">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J10">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.134107666666666</v>
+      </c>
+      <c r="N10">
+        <v>12.402323</v>
+      </c>
+      <c r="O10">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="P10">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="Q10">
+        <v>0.2496215550209999</v>
+      </c>
+      <c r="R10">
+        <v>2.246593995189</v>
+      </c>
+      <c r="S10">
+        <v>0.001033469502967847</v>
+      </c>
+      <c r="T10">
+        <v>0.001033469502967847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.060381</v>
+      </c>
+      <c r="H11">
+        <v>0.181143</v>
+      </c>
+      <c r="I11">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J11">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.004511666666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.013535</v>
+      </c>
+      <c r="O11">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="P11">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="Q11">
+        <v>0.000272418945</v>
+      </c>
+      <c r="R11">
+        <v>0.002451770505</v>
+      </c>
+      <c r="S11">
+        <v>1.127854009500463E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.127854009500463E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.060381</v>
+      </c>
+      <c r="H12">
+        <v>0.181143</v>
+      </c>
+      <c r="I12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J12">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.42211</v>
+      </c>
+      <c r="N12">
+        <v>40.26633</v>
+      </c>
+      <c r="O12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="P12">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="Q12">
+        <v>0.8104404239099998</v>
+      </c>
+      <c r="R12">
+        <v>7.29396381519</v>
+      </c>
+      <c r="S12">
+        <v>0.003355341096296178</v>
+      </c>
+      <c r="T12">
+        <v>0.003355341096296178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.060381</v>
+      </c>
+      <c r="H13">
+        <v>0.181143</v>
+      </c>
+      <c r="I13">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="J13">
+        <v>0.00513247161901269</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.910893</v>
+      </c>
+      <c r="O13">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="P13">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="Q13">
+        <v>0.179349543411</v>
+      </c>
+      <c r="R13">
+        <v>1.614145890699</v>
+      </c>
+      <c r="S13">
+        <v>0.0007425331657391656</v>
+      </c>
+      <c r="T13">
+        <v>0.0007425331657391656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.767765</v>
+      </c>
+      <c r="I14">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J14">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.134107666666666</v>
+      </c>
+      <c r="N14">
+        <v>12.402323</v>
+      </c>
+      <c r="O14">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="P14">
+        <v>0.2013590292714859</v>
+      </c>
+      <c r="Q14">
+        <v>5.192115390899445</v>
+      </c>
+      <c r="R14">
+        <v>46.729038518095</v>
+      </c>
+      <c r="S14">
+        <v>0.02149611203220466</v>
+      </c>
+      <c r="T14">
+        <v>0.02149611203220466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.767765</v>
+      </c>
+      <c r="I15">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J15">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.004511666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.013535</v>
+      </c>
+      <c r="O15">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="P15">
+        <v>0.0002197487084628873</v>
+      </c>
+      <c r="Q15">
+        <v>0.005666299919444445</v>
+      </c>
+      <c r="R15">
+        <v>0.050996699275</v>
+      </c>
+      <c r="S15">
+        <v>2.345930487021586E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.345930487021586E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="H10">
-        <v>0.977348597175649</v>
-      </c>
-      <c r="I10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="J10">
-        <v>0.09278717964524053</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="N10">
-        <v>1.99499569102434</v>
-      </c>
-      <c r="O10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="P10">
-        <v>0.1200801372254952</v>
-      </c>
-      <c r="Q10">
-        <v>1.949806239994103</v>
-      </c>
-      <c r="R10">
-        <v>1.949806239994103</v>
-      </c>
-      <c r="S10">
-        <v>0.01114189726456716</v>
-      </c>
-      <c r="T10">
-        <v>0.01114189726456716</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.767765</v>
+      </c>
+      <c r="I16">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J16">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.42211</v>
+      </c>
+      <c r="N16">
+        <v>40.26633</v>
+      </c>
+      <c r="O16">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="P16">
+        <v>0.6537476181780872</v>
+      </c>
+      <c r="Q16">
+        <v>16.85711876138333</v>
+      </c>
+      <c r="R16">
+        <v>151.71406885245</v>
+      </c>
+      <c r="S16">
+        <v>0.06979092068523968</v>
+      </c>
+      <c r="T16">
+        <v>0.06979092068523968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.255921666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.767765</v>
+      </c>
+      <c r="I17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="J17">
+        <v>0.1067551433376357</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.970297666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.910893</v>
+      </c>
+      <c r="O17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="P17">
+        <v>0.144673603841964</v>
+      </c>
+      <c r="Q17">
+        <v>3.730461196016112</v>
+      </c>
+      <c r="R17">
+        <v>33.574150764145</v>
+      </c>
+      <c r="S17">
+        <v>0.0154446513153212</v>
+      </c>
+      <c r="T17">
+        <v>0.0154446513153212</v>
       </c>
     </row>
   </sheetData>
